--- a/TRAVAIL/Documentation/Test d'intégration.xlsx
+++ b/TRAVAIL/Documentation/Test d'intégration.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_9248CACD84F5E813E97046798E3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D47BF6-3B16-4227-9A56-0797A4C5FBC3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD737F-AC0A-480E-8E38-85963FBD3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Plan de tests d'intégration</t>
   </si>
@@ -74,13 +79,23 @@
 Pas possible de modifier l'offre car les champs du formulaire sont vides
 Pas possible d'ajouter une offre, pb de requête SQL
 J'ai rendu les boutons "Modifier","supprimer" et "ajouter catégorie" disponibles pour l'admin (dispo pour tous par défaut)</t>
+  </si>
+  <si>
+    <t>Mise en ligne du site</t>
+  </si>
+  <si>
+    <t>Transfert OK
+Problème fonctionnel lors de la sollicitation de la BDD</t>
+  </si>
+  <si>
+    <t>Je n'ai toujours pas résolu ce pb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,21 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.44140625" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="23.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -486,7 +501,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -503,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="60.75">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -520,12 +535,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="106.5">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>44983</v>
+        <v>44982</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -535,6 +550,23 @@
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TRAVAIL/Documentation/Test d'intégration.xlsx
+++ b/TRAVAIL/Documentation/Test d'intégration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD737F-AC0A-480E-8E38-85963FBD3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2FA1D-510C-406D-8560-C8FD0DA77FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Plan de tests d'intégration</t>
   </si>
@@ -89,13 +89,80 @@
   </si>
   <si>
     <t>Je n'ai toujours pas résolu ce pb</t>
+  </si>
+  <si>
+    <t>Transfert OK
+BDD fonctionnelle</t>
+  </si>
+  <si>
+    <t>alamri@ahmed.com</t>
+  </si>
+  <si>
+    <t>jeanbonneau@dev.fr</t>
+  </si>
+  <si>
+    <t>annaconda@amazon.br</t>
+  </si>
+  <si>
+    <t>jlegrand77@gmail.com</t>
+  </si>
+  <si>
+    <t>jaksailair@surlaroute.vit</t>
+  </si>
+  <si>
+    <t>vincentime@poche.in</t>
+  </si>
+  <si>
+    <t>Jean*dev68</t>
+  </si>
+  <si>
+    <t>Moogli*7</t>
+  </si>
+  <si>
+    <t>Porshe911</t>
+  </si>
+  <si>
+    <t>desdgfcolmsdar_Jonathanu</t>
+  </si>
+  <si>
+    <t>rLdgNzu5Vx%R</t>
+  </si>
+  <si>
+    <t>Moneyman*68</t>
+  </si>
+  <si>
+    <t>Ninja*88</t>
+  </si>
+  <si>
+    <t>https://www.pma.devcolmar.xyz/</t>
+  </si>
+  <si>
+    <t>tournesol@duroc.fr</t>
+  </si>
+  <si>
+    <t>AmdWeb*68</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>modo</t>
+  </si>
+  <si>
+    <t>visiteur</t>
+  </si>
+  <si>
+    <t>recruteur</t>
+  </si>
+  <si>
+    <t>candidat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +191,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,8 +247,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,21 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.44140625" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -500,8 +602,10 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -517,8 +621,10 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -534,8 +640,10 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,8 +659,12 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,12 +679,116 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44984</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{993DC8D9-B6D8-497F-8197-446D13C5842A}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{F2CE0ACB-73E3-48EB-8E94-A7128181DAD2}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{D8D9A617-1ADD-4E5B-B284-CD1DD1F61A3F}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{3071B86D-6985-4B70-827E-C1D2AC96C6A3}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{E8941C50-F3FA-43C3-AFC5-FE798CB52145}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{CF8E8E64-031B-4752-9867-405DDA1F3E81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/TRAVAIL/Documentation/Test d'intégration.xlsx
+++ b/TRAVAIL/Documentation/Test d'intégration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2FA1D-510C-406D-8560-C8FD0DA77FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4A4A1-F967-40D8-A63F-E555B80767CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -241,12 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +256,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,7 +581,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,20 +590,20 @@
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
     <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -621,8 +621,8 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -640,8 +640,8 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -659,10 +659,10 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -680,10 +680,10 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -703,18 +703,18 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>123456</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
@@ -722,10 +722,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I9" t="s">
@@ -733,10 +733,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
@@ -744,10 +744,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
@@ -755,10 +755,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I12" t="s">
@@ -766,10 +766,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I13" t="s">

--- a/TRAVAIL/Documentation/Test d'intégration.xlsx
+++ b/TRAVAIL/Documentation/Test d'intégration.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4A4A1-F967-40D8-A63F-E555B80767CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50BD9A3-672D-4204-85A0-E6AC729CED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Plan de tests d'intégration</t>
   </si>
@@ -95,9 +96,6 @@
 BDD fonctionnelle</t>
   </si>
   <si>
-    <t>alamri@ahmed.com</t>
-  </si>
-  <si>
     <t>jeanbonneau@dev.fr</t>
   </si>
   <si>
@@ -122,33 +120,18 @@
     <t>Porshe911</t>
   </si>
   <si>
-    <t>desdgfcolmsdar_Jonathanu</t>
-  </si>
-  <si>
-    <t>rLdgNzu5Vx%R</t>
-  </si>
-  <si>
     <t>Moneyman*68</t>
   </si>
   <si>
     <t>Ninja*88</t>
   </si>
   <si>
-    <t>https://www.pma.devcolmar.xyz/</t>
-  </si>
-  <si>
     <t>tournesol@duroc.fr</t>
   </si>
   <si>
     <t>AmdWeb*68</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>modo</t>
-  </si>
-  <si>
     <t>visiteur</t>
   </si>
   <si>
@@ -156,13 +139,37 @@
   </si>
   <si>
     <t>candidat</t>
+  </si>
+  <si>
+    <t>Les modifications des offres ne sont pas prises en compte
+Suppression ok
+Ajout catégorie OK en BDD mais pb avec sous_categorie_id</t>
+  </si>
+  <si>
+    <t>Adresse email</t>
+  </si>
+  <si>
+    <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>modérateur</t>
+  </si>
+  <si>
+    <t>administrateur</t>
+  </si>
+  <si>
+    <t>En partie fonctionnel
+Sécurité de la page inexistante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,21 +213,301 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -228,18 +515,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,14 +528,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,217 +948,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.44140625" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="29">
         <v>44982</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="30">
         <v>44982</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="30">
         <v>44982</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>44984</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30">
+        <v>44986</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44986</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDAC82D-E845-4DB5-B3AE-B4A2127F99E5}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{993DC8D9-B6D8-497F-8197-446D13C5842A}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{F2CE0ACB-73E3-48EB-8E94-A7128181DAD2}"/>
-    <hyperlink ref="G12" r:id="rId3" xr:uid="{D8D9A617-1ADD-4E5B-B284-CD1DD1F61A3F}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{3071B86D-6985-4B70-827E-C1D2AC96C6A3}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{E8941C50-F3FA-43C3-AFC5-FE798CB52145}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{CF8E8E64-031B-4752-9867-405DDA1F3E81}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{805EDB23-8FC2-4FDB-B012-B285BD349BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>